--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -689,7 +689,7 @@
       <c r="H5" s="2" t="n">
         <v>46021.05871527778</v>
       </c>
-      <c r="I5" s="3" t="n">
+      <c r="I5" s="2" t="n">
         <v>46021</v>
       </c>
       <c r="J5" t="inlineStr">
@@ -866,23 +866,23 @@
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>😍😍😍😋</t>
+          <t>Yo.  Solo  lo. Saco. Con mi. Dedo. Y pa. Dentro.</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2026-01-08T03:17:28.000Z</t>
+          <t>2026-01-09T04:56:43.000Z</t>
         </is>
       </c>
       <c r="H9" s="2" t="n">
-        <v>46030.13712962963</v>
+        <v>46031.20605324074</v>
       </c>
       <c r="I9" s="3" t="n">
-        <v>46030</v>
+        <v>46031</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>03:17:28</t>
+          <t>04:56:43</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -900,7 +900,7 @@
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=25509492045398285', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzI1NTA5NDkyMDQ1Mzk4Mjg1', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18yNTUwOTQ5MjA0NTM5ODI4NQ==', 'date': '2026-01-08T03:17:28.000Z', 'text': '😍😍😍😋', 'profileUrl': 'https://www.facebook.com/paulitha.montalvo.9', 'profilePi</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=1612191580222869', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzE2MTIxOTE1ODAyMjI4Njk=', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18xNjEyMTkxNTgwMjIyODY5', 'date': '2026-01-09T04:56:43.000Z', 'text': 'Yo.  Solo  lo. Saco. Con mi. Dedo. Y pa. Dentro.', 'profileUrl': 'https://www.facebo</t>
         </is>
       </c>
     </row>
@@ -926,23 +926,23 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Muy dulce</t>
+          <t>No pero $4.500 pa ensuciarse la muela. No mano. Eso no vale la pena. Mejor pago los $1.500 del taco saltin y como más rico y la opción de comprar así sean 3 mil de queso costeño. Pa hacer un sándwich de galleta con queso y arequipe jeje</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2026-01-07T20:37:57.000Z</t>
+          <t>2026-01-09T04:16:34.000Z</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
-        <v>46029.8596875</v>
+        <v>46031.1781712963</v>
       </c>
       <c r="I10" s="3" t="n">
-        <v>46029</v>
+        <v>46031</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>20:37:57</t>
+          <t>04:16:34</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -959,6 +959,302 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=2721673288178668', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzI3MjE2NzMyODgxNzg2Njg=', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18yNzIxNjczMjg4MTc4NjY4', 'date': '2026-01-09T04:16:34.000Z', 'text': 'No pero $4.500 pa ensuciarse la muela. No mano. Eso no vale la pena. Mejor pago los </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>8</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Con galletas de soda....</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2026-01-09T01:05:37.000Z</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>46031.04556712963</v>
+      </c>
+      <c r="I11" s="3" t="n">
+        <v>46031</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>01:05:37</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="b">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=1409373564159730', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzE0MDkzNzM1NjQxNTk3MzA=', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18xNDA5MzczNTY0MTU5NzMw', 'date': '2026-01-09T01:05:37.000Z', 'text': 'Con galletas de soda....', 'profileUrl': 'https://www.facebook.com/deisyandrea.marin</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>8</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2026-01-08T22:07:31.000Z</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>46030.92188657408</v>
+      </c>
+      <c r="I12" s="3" t="n">
+        <v>46030</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>22:07:31</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="b">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=870650915711997', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3Xzg3MDY1MDkxNTcxMTk5Nw==', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN184NzA2NTA5MTU3MTE5OTc=', 'date': '2026-01-08T22:07:31.000Z', 'text': '1', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/472669620_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>8</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Eso es lo q vale 15lukas en sandwich qbano eso es mero robo</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2026-01-08T20:08:02.000Z</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>46030.83891203703</v>
+      </c>
+      <c r="I13" s="3" t="n">
+        <v>46030</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>20:08:02</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="b">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=3042158472650995', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzMwNDIxNTg0NzI2NTA5OTU=', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18zMDQyMTU4NDcyNjUwOTk1', 'date': '2026-01-08T20:08:02.000Z', 'text': 'Eso es lo q vale 15lukas en sandwich qbano eso es mero robo', 'profileUrl': 'https:/</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>8</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>😍😍😍😋</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2026-01-08T03:17:28.000Z</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="n">
+        <v>46030.13712962963</v>
+      </c>
+      <c r="I14" s="2" t="n">
+        <v>46030</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>03:17:28</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="b">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=25509492045398285', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzI1NTA5NDkyMDQ1Mzk4Mjg1', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18yNTUwOTQ5MjA0NTM5ODI4NQ==', 'date': '2026-01-08T03:17:28.000Z', 'text': '😍😍😍😋', 'profileUrl': 'https://www.facebook.com/paulitha.montalvo.9', 'profilePi</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>8</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Muy dulce</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2026-01-07T20:37:57.000Z</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="n">
+        <v>46029.8596875</v>
+      </c>
+      <c r="I15" s="2" t="n">
+        <v>46029</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>20:37:57</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="b">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
         <is>
           <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=1366545264600266', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzEzNjY1NDUyNjQ2MDAyNjY=', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18xMzY2NTQ1MjY0NjAwMjY2', 'date': '2026-01-07T20:37:57.000Z', 'text': 'Muy dulce', 'profileUrl': 'https://www.facebook.com/esperanza.roalarrotta', 'profile</t>
         </is>
@@ -1200,7 +1496,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1209,7 +1505,7 @@
         <v>46029.8596875</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>46030.13712962963</v>
+        <v>46031.20605324074</v>
       </c>
     </row>
   </sheetData>
@@ -1268,7 +1564,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>

--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -545,12 +545,32 @@
           <t>https://www.instagram.com/p/DTNttCmjGTm/</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>sad_trash_666</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Con saltin Noel</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2026-01-10T00:50:17.000Z</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>46032.03491898148</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>46032</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>00:50:17</t>
+        </is>
+      </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
@@ -560,17 +580,21 @@
       <c r="M2" t="b">
         <v>0</v>
       </c>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>FAILED</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr"/>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>https://instagram.com/sad_trash_666</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DTNttCmjGTm/', 'commentUrl': 'https://www.instagram.com/p/DTNttCmjGTm/c/18093020255477615', 'id': '18093020255477615', 'text': 'Con saltin Noel', 'ownerUsername': 'sad_trash_666', 'ownerProfilePicUrl': 'https://scontent-lga3-1.cdninstagram.com/v/t51.89012-19/573323465_1219825463302212_7278921664109726296_n.png?stp=dst-webp_s150x150&amp;_nc_cat=1&amp;ig_cache_key=YW5vbnltb3VzX3Byb2ZpbGVfcGlj.3-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljL</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -579,12 +603,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DS3IpPyDFZi/</t>
+          <t>https://www.instagram.com/p/DTNttCmjGTm/</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DS3IpPyDFZi/</t>
+          <t>https://www.instagram.com/p/DTNttCmjGTm/</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -612,7 +636,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -621,12 +645,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DS3I1dtjGt8/</t>
+          <t>https://www.instagram.com/p/DS3IpPyDFZi/</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DS3I1dtjGt8/</t>
+          <t>https://www.instagram.com/p/DS3IpPyDFZi/</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -654,7 +678,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -663,42 +687,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DS3Ive2DMKz/</t>
+          <t>https://www.instagram.com/p/DS3I1dtjGt8/</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DS3Ive2DMKz/</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>valeriana090909</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Yo hago lo mismo pero con el chimbo</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2025-12-30T01:24:33.000Z</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>46021.05871527778</v>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>46021</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>01:24:33</t>
-        </is>
-      </c>
+          <t>https://www.instagram.com/p/DS3I1dtjGt8/</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -706,45 +710,61 @@
       <c r="M5" t="b">
         <v>0</v>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>https://instagram.com/valeriana090909</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DS3Ive2DMKz/', 'commentUrl': 'https://www.instagram.com/p/DS3Ive2DMKz/c/18435586528111115', 'id': '18435586528111115', 'text': 'Yo hago lo mismo pero con el chimbo', 'ownerUsername': 'valeriana090909', 'ownerProfilePicUrl': 'https://scontent-iad3-2.cdninstagram.com/v/t51.82787-19/559818502_17926859502136119_6243561131778199820_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=103&amp;ig_cache_key=GAYnXiE3K5A8YrA-AAxREwHFlaVWbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669</t>
-        </is>
-      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02Stti8Hq5aCxK1Erpf4yXHiLSd9bxcQUnBL1NMp9VtbPTzUmko1MGwd8QcLRt29hMl</t>
+          <t>https://www.instagram.com/p/DS3Ive2DMKz/</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02Stti8Hq5aCxK1Erpf4yXHiLSd9bxcQUnBL1NMp9VtbPTzUmko1MGwd8QcLRt29hMl</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+          <t>https://www.instagram.com/p/DS3Ive2DMKz/</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>valeriana090909</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Yo hago lo mismo pero con el chimbo</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2025-12-30T01:24:33.000Z</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>46021.05871527778</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>46021</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>01:24:33</t>
+        </is>
+      </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -752,17 +772,21 @@
       <c r="M6" t="b">
         <v>0</v>
       </c>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>FAILED</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>https://instagram.com/valeriana090909</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DS3Ive2DMKz/', 'commentUrl': 'https://www.instagram.com/p/DS3Ive2DMKz/c/18435586528111115', 'id': '18435586528111115', 'text': 'Yo hago lo mismo pero con el chimbo', 'ownerUsername': 'valeriana090909', 'ownerProfilePicUrl': 'https://scontent-iad3-2.cdninstagram.com/v/t51.82787-19/559818502_17926859502136119_6243561131778199820_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=103&amp;ig_cache_key=GAYnXiE3K5A8YrA-AAxREwHFlaVWbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -771,12 +795,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02mUaTeDZ6j7F5SzL1iqfA8h1ZMdgtmrY72ZWD2d1prBbJDJdZDqTiF3AwTCUx3bMxl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02Stti8Hq5aCxK1Erpf4yXHiLSd9bxcQUnBL1NMp9VtbPTzUmko1MGwd8QcLRt29hMl</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02mUaTeDZ6j7F5SzL1iqfA8h1ZMdgtmrY72ZWD2d1prBbJDJdZDqTiF3AwTCUx3bMxl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02Stti8Hq5aCxK1Erpf4yXHiLSd9bxcQUnBL1NMp9VtbPTzUmko1MGwd8QcLRt29hMl</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -804,7 +828,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -813,12 +837,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02g86NL2qqNZY3Q1LEzSurWq9SJ4p9VCqWxQmRgz7Paoekj35wC6iWZgKeHmbwjKcrl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02mUaTeDZ6j7F5SzL1iqfA8h1ZMdgtmrY72ZWD2d1prBbJDJdZDqTiF3AwTCUx3bMxl</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02g86NL2qqNZY3Q1LEzSurWq9SJ4p9VCqWxQmRgz7Paoekj35wC6iWZgKeHmbwjKcrl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02mUaTeDZ6j7F5SzL1iqfA8h1ZMdgtmrY72ZWD2d1prBbJDJdZDqTiF3AwTCUx3bMxl</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -846,7 +870,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -855,40 +879,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02g86NL2qqNZY3Q1LEzSurWq9SJ4p9VCqWxQmRgz7Paoekj35wC6iWZgKeHmbwjKcrl</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02g86NL2qqNZY3Q1LEzSurWq9SJ4p9VCqWxQmRgz7Paoekj35wC6iWZgKeHmbwjKcrl</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Yo.  Solo  lo. Saco. Con mi. Dedo. Y pa. Dentro.</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>2026-01-09T04:56:43.000Z</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>46031.20605324074</v>
-      </c>
-      <c r="I9" s="3" t="n">
-        <v>46031</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>04:56:43</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -897,12 +903,12 @@
         <v>0</v>
       </c>
       <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=1612191580222869', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzE2MTIxOTE1ODAyMjI4Njk=', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18xNjEyMTkxNTgwMjIyODY5', 'date': '2026-01-09T04:56:43.000Z', 'text': 'Yo.  Solo  lo. Saco. Con mi. Dedo. Y pa. Dentro.', 'profileUrl': 'https://www.facebo</t>
-        </is>
-      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -926,23 +932,23 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>No pero $4.500 pa ensuciarse la muela. No mano. Eso no vale la pena. Mejor pago los $1.500 del taco saltin y como más rico y la opción de comprar así sean 3 mil de queso costeño. Pa hacer un sándwich de galleta con queso y arequipe jeje</t>
+          <t>Una loca una vez me dijo q se los comia con doritos</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2026-01-09T04:16:34.000Z</t>
+          <t>2026-01-10T06:18:16.000Z</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
-        <v>46031.1781712963</v>
+        <v>46032.26268518518</v>
       </c>
       <c r="I10" s="3" t="n">
-        <v>46031</v>
+        <v>46032</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>04:16:34</t>
+          <t>06:18:16</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -960,7 +966,7 @@
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t xml:space="preserve">{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=2721673288178668', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzI3MjE2NzMyODgxNzg2Njg=', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18yNzIxNjczMjg4MTc4NjY4', 'date': '2026-01-09T04:16:34.000Z', 'text': 'No pero $4.500 pa ensuciarse la muela. No mano. Eso no vale la pena. Mejor pago los </t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=870522879032047', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3Xzg3MDUyMjg3OTAzMjA0Nw==', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN184NzA1MjI4NzkwMzIwNDc=', 'date': '2026-01-10T06:18:16.000Z', 'text': 'Una loca una vez me dijo q se los comia con doritos', 'profileUrl': 'https://www.face</t>
         </is>
       </c>
     </row>
@@ -986,28 +992,28 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Con galletas de soda....</t>
+          <t>Que rico con un pedazo de queso como lo vendían antes 🤤</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2026-01-09T01:05:37.000Z</t>
+          <t>2026-01-10T00:09:06.000Z</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
-        <v>46031.04556712963</v>
+        <v>46032.00631944444</v>
       </c>
       <c r="I11" s="3" t="n">
-        <v>46031</v>
+        <v>46032</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>01:05:37</t>
+          <t>00:09:06</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L11" t="n">
@@ -1020,7 +1026,7 @@
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=1409373564159730', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzE0MDkzNzM1NjQxNTk3MzA=', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18xNDA5MzczNTY0MTU5NzMw', 'date': '2026-01-09T01:05:37.000Z', 'text': 'Con galletas de soda....', 'profileUrl': 'https://www.facebook.com/deisyandrea.marin</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=1886660978614343', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzE4ODY2NjA5Nzg2MTQzNDM=', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18xODg2NjYwOTc4NjE0MzQz', 'date': '2026-01-10T00:09:06.000Z', 'text': 'Que rico con un pedazo de queso como lo vendían antes 🤤', 'profileUrl': 'https://www</t>
         </is>
       </c>
     </row>
@@ -1046,23 +1052,23 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Con papitas de limón una delicia 😋</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2026-01-08T22:07:31.000Z</t>
+          <t>2026-01-09T23:02:03.000Z</t>
         </is>
       </c>
       <c r="H12" s="2" t="n">
-        <v>46030.92188657408</v>
+        <v>46031.95975694444</v>
       </c>
       <c r="I12" s="3" t="n">
-        <v>46030</v>
+        <v>46031</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>22:07:31</t>
+          <t>23:02:03</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1080,7 +1086,7 @@
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=870650915711997', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3Xzg3MDY1MDkxNTcxMTk5Nw==', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN184NzA2NTA5MTU3MTE5OTc=', 'date': '2026-01-08T22:07:31.000Z', 'text': '1', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/472669620_1</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=2128202687922696', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzIxMjgyMDI2ODc5MjI2OTY=', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18yMTI4MjAyNjg3OTIyNjk2', 'date': '2026-01-09T23:02:03.000Z', 'text': 'Con papitas de limón una delicia 😋', 'profileUrl': 'https://www.facebook.com/yesenia</t>
         </is>
       </c>
     </row>
@@ -1106,23 +1112,23 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Eso es lo q vale 15lukas en sandwich qbano eso es mero robo</t>
+          <t>Saludos</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2026-01-08T20:08:02.000Z</t>
+          <t>2026-01-09T21:29:33.000Z</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
-        <v>46030.83891203703</v>
+        <v>46031.89552083334</v>
       </c>
       <c r="I13" s="3" t="n">
-        <v>46030</v>
+        <v>46031</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>20:08:02</t>
+          <t>21:29:33</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1140,7 +1146,7 @@
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=3042158472650995', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzMwNDIxNTg0NzI2NTA5OTU=', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18zMDQyMTU4NDcyNjUwOTk1', 'date': '2026-01-08T20:08:02.000Z', 'text': 'Eso es lo q vale 15lukas en sandwich qbano eso es mero robo', 'profileUrl': 'https:/</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=1367249577972718', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzEzNjcyNDk1Nzc5NzI3MTg=', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18xMzY3MjQ5NTc3OTcyNzE4', 'date': '2026-01-09T21:29:33.000Z', 'text': 'Saludos', 'profileUrl': 'https://www.facebook.com/people/El-moreno-del-humor/6155417</t>
         </is>
       </c>
     </row>
@@ -1166,27 +1172,29 @@
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>😍😍😍😋</t>
+          <t>Pa un cancer</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2026-01-08T03:17:28.000Z</t>
+          <t>2026-01-09T20:23:22.000Z</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
-        <v>46030.13712962963</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>46030</v>
+        <v>46031.84956018518</v>
+      </c>
+      <c r="I14" s="3" t="n">
+        <v>46031</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>03:17:28</t>
-        </is>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
+          <t>20:23:22</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1198,7 +1206,7 @@
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=25509492045398285', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzI1NTA5NDkyMDQ1Mzk4Mjg1', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18yNTUwOTQ5MjA0NTM5ODI4NQ==', 'date': '2026-01-08T03:17:28.000Z', 'text': '😍😍😍😋', 'profileUrl': 'https://www.facebook.com/paulitha.montalvo.9', 'profilePi</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=1282392983923173', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzEyODIzOTI5ODM5MjMxNzM=', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18xMjgyMzkyOTgzOTIzMTcz', 'date': '2026-01-09T20:23:22.000Z', 'text': 'Pa un cancer', 'profileUrl': 'https://www.facebook.com/mauricio.ariasgarzon.9', 'pro</t>
         </is>
       </c>
     </row>
@@ -1224,27 +1232,29 @@
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Muy dulce</t>
+          <t>Con cuca eso es un pan</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2026-01-07T20:37:57.000Z</t>
+          <t>2026-01-09T19:18:22.000Z</t>
         </is>
       </c>
       <c r="H15" s="2" t="n">
-        <v>46029.8596875</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>46029</v>
+        <v>46031.8044212963</v>
+      </c>
+      <c r="I15" s="3" t="n">
+        <v>46031</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>20:37:57</t>
-        </is>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
+          <t>19:18:22</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -1255,6 +1265,532 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=1668322601218526', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzE2NjgzMjI2MDEyMTg1MjY=', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18xNjY4MzIyNjAxMjE4NTI2', 'date': '2026-01-09T19:18:22.000Z', 'text': 'Con cuca eso es un pan', 'profileUrl': 'https://www.facebook.com/people/Jonathan-Per</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>8</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Solo !!!</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2026-01-09T19:12:23.000Z</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="n">
+        <v>46031.8002662037</v>
+      </c>
+      <c r="I16" s="3" t="n">
+        <v>46031</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>19:12:23</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=1944940596458498', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzE5NDQ5NDA1OTY0NTg0OTg=', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18xOTQ0OTQwNTk2NDU4NDk4', 'date': '2026-01-09T19:12:23.000Z', 'text': 'Solo !!!', 'profileUrl': 'https://www.facebook.com/francisco.salazar.3538', 'profile</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>8</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Dios cristojesu Espiritusanto</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2026-01-09T15:57:57.000Z</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="n">
+        <v>46031.66524305556</v>
+      </c>
+      <c r="I17" s="3" t="n">
+        <v>46031</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>15:57:57</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="b">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=2171705350315851', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzIxNzE3MDUzNTAzMTU4NTE=', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18yMTcxNzA1MzUwMzE1ODUx', 'date': '2026-01-09T15:57:57.000Z', 'text': 'Dios cristojesu Espiritusanto', 'profileUrl': 'https://www.facebook.com/james.perezc</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>8</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Yo.  Solo  lo. Saco. Con mi. Dedo. Y pa. Dentro.</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2026-01-09T04:56:43.000Z</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="n">
+        <v>46031.20605324074</v>
+      </c>
+      <c r="I18" s="2" t="n">
+        <v>46031</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>04:56:43</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="b">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=1612191580222869', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzE2MTIxOTE1ODAyMjI4Njk=', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18xNjEyMTkxNTgwMjIyODY5', 'date': '2026-01-09T04:56:43.000Z', 'text': 'Yo.  Solo  lo. Saco. Con mi. Dedo. Y pa. Dentro.', 'profileUrl': 'https://www.facebo</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>8</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>No pero $4.500 pa ensuciarse la muela. No mano. Eso no vale la pena. Mejor pago los $1.500 del taco saltin y como más rico y la opción de comprar así sean 3 mil de queso costeño. Pa hacer un sándwich de galleta con queso y arequipe jeje</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2026-01-09T04:16:34.000Z</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="n">
+        <v>46031.1781712963</v>
+      </c>
+      <c r="I19" s="2" t="n">
+        <v>46031</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>04:16:34</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=2721673288178668', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzI3MjE2NzMyODgxNzg2Njg=', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18yNzIxNjczMjg4MTc4NjY4', 'date': '2026-01-09T04:16:34.000Z', 'text': 'No pero $4.500 pa ensuciarse la muela. No mano. Eso no vale la pena. Mejor pago los </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>8</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Con galletas de soda....</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2026-01-09T01:05:37.000Z</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="n">
+        <v>46031.04556712963</v>
+      </c>
+      <c r="I20" s="2" t="n">
+        <v>46031</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>01:05:37</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="b">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=1409373564159730', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzE0MDkzNzM1NjQxNTk3MzA=', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18xNDA5MzczNTY0MTU5NzMw', 'date': '2026-01-09T01:05:37.000Z', 'text': 'Con galletas de soda....', 'profileUrl': 'https://www.facebook.com/deisyandrea.marin</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>8</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2026-01-08T22:07:31.000Z</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="n">
+        <v>46030.92188657408</v>
+      </c>
+      <c r="I21" s="2" t="n">
+        <v>46030</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>22:07:31</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="b">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=870650915711997', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3Xzg3MDY1MDkxNTcxMTk5Nw==', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN184NzA2NTA5MTU3MTE5OTc=', 'date': '2026-01-08T22:07:31.000Z', 'text': '1', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/472669620_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>8</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Eso es lo q vale 15lukas en sandwich qbano eso es mero robo</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2026-01-08T20:08:02.000Z</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="n">
+        <v>46030.83891203703</v>
+      </c>
+      <c r="I22" s="2" t="n">
+        <v>46030</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>20:08:02</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="b">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=3042158472650995', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzMwNDIxNTg0NzI2NTA5OTU=', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18zMDQyMTU4NDcyNjUwOTk1', 'date': '2026-01-08T20:08:02.000Z', 'text': 'Eso es lo q vale 15lukas en sandwich qbano eso es mero robo', 'profileUrl': 'https:/</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>8</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>😍😍😍😋</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2026-01-08T03:17:28.000Z</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="n">
+        <v>46030.13712962963</v>
+      </c>
+      <c r="I23" s="2" t="n">
+        <v>46030</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>03:17:28</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="b">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=25509492045398285', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzI1NTA5NDkyMDQ1Mzk4Mjg1', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18yNTUwOTQ5MjA0NTM5ODI4NQ==', 'date': '2026-01-08T03:17:28.000Z', 'text': '😍😍😍😋', 'profileUrl': 'https://www.facebook.com/paulitha.montalvo.9', 'profilePi</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>8</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Muy dulce</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2026-01-07T20:37:57.000Z</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="n">
+        <v>46029.8596875</v>
+      </c>
+      <c r="I24" s="2" t="n">
+        <v>46029</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>20:37:57</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="b">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
         <is>
           <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=1366545264600266', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzEzNjY1NDUyNjQ2MDAyNjY=', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18xMzY2NTQ1MjY0NjAwMjY2', 'date': '2026-01-07T20:37:57.000Z', 'text': 'Muy dulce', 'profileUrl': 'https://www.facebook.com/esperanza.roalarrotta', 'profile</t>
         </is>
@@ -1331,13 +1867,17 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+      <c r="F2" s="2" t="n">
+        <v>46032.03491898148</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>46032.03491898148</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -1496,16 +2036,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>46029.8596875</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>46031.20605324074</v>
+        <v>46032.26268518518</v>
       </c>
     </row>
   </sheetData>
@@ -1564,13 +2104,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1580,13 +2120,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -1603,7 +2143,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1626,7 +2166,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DTNttCmjGTm/</t>
+          <t>https://www.instagram.com/p/DS3IpPyDFZi/</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1638,7 +2178,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DS3IpPyDFZi/</t>
+          <t>https://www.instagram.com/p/DS3I1dtjGt8/</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1650,7 +2190,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DS3I1dtjGt8/</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02Stti8Hq5aCxK1Erpf4yXHiLSd9bxcQUnBL1NMp9VtbPTzUmko1MGwd8QcLRt29hMl</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1662,7 +2202,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02Stti8Hq5aCxK1Erpf4yXHiLSd9bxcQUnBL1NMp9VtbPTzUmko1MGwd8QcLRt29hMl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02mUaTeDZ6j7F5SzL1iqfA8h1ZMdgtmrY72ZWD2d1prBbJDJdZDqTiF3AwTCUx3bMxl</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1674,22 +2214,10 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02mUaTeDZ6j7F5SzL1iqfA8h1ZMdgtmrY72ZWD2d1prBbJDJdZDqTiF3AwTCUx3bMxl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02g86NL2qqNZY3Q1LEzSurWq9SJ4p9VCqWxQmRgz7Paoekj35wC6iWZgKeHmbwjKcrl</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
-        <is>
-          <t>FAILED_ALL_ATTEMPTS</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02g86NL2qqNZY3Q1LEzSurWq9SJ4p9VCqWxQmRgz7Paoekj35wC6iWZgKeHmbwjKcrl</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
         <is>
           <t>FAILED_ALL_ATTEMPTS</t>
         </is>
@@ -1746,16 +2274,16 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P24"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -563,7 +563,7 @@
       <c r="H2" s="2" t="n">
         <v>46032.03491898148</v>
       </c>
-      <c r="I2" s="3" t="n">
+      <c r="I2" s="2" t="n">
         <v>46032</v>
       </c>
       <c r="J2" t="inlineStr">
@@ -932,23 +932,23 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Una loca una vez me dijo q se los comia con doritos</t>
+          <t>Con fresas!!!!!!😍😍😍😍😍😍😍😍</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2026-01-10T06:18:16.000Z</t>
+          <t>2026-01-10T23:10:23.000Z</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
-        <v>46032.26268518518</v>
+        <v>46032.96554398148</v>
       </c>
       <c r="I10" s="3" t="n">
         <v>46032</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>06:18:16</t>
+          <t>23:10:23</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -966,7 +966,7 @@
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=870522879032047', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3Xzg3MDUyMjg3OTAzMjA0Nw==', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN184NzA1MjI4NzkwMzIwNDc=', 'date': '2026-01-10T06:18:16.000Z', 'text': 'Una loca una vez me dijo q se los comia con doritos', 'profileUrl': 'https://www.face</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=859626413372345', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3Xzg1OTYyNjQxMzM3MjM0NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN184NTk2MjY0MTMzNzIzNDU=', 'date': '2026-01-10T23:10:23.000Z', 'text': 'Con fresas!!!!!!😍😍😍😍😍😍😍😍', 'profilePicture': 'https://scontent-lax7-1.xx.fbcdn.net/v/</t>
         </is>
       </c>
     </row>
@@ -992,29 +992,27 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Que rico con un pedazo de queso como lo vendían antes 🤤</t>
+          <t>Una loca una vez me dijo q se los comia con doritos</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2026-01-10T00:09:06.000Z</t>
+          <t>2026-01-10T06:18:16.000Z</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
-        <v>46032.00631944444</v>
-      </c>
-      <c r="I11" s="3" t="n">
+        <v>46032.26268518518</v>
+      </c>
+      <c r="I11" s="2" t="n">
         <v>46032</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>00:09:06</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>06:18:16</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1026,7 +1024,7 @@
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=1886660978614343', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzE4ODY2NjA5Nzg2MTQzNDM=', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18xODg2NjYwOTc4NjE0MzQz', 'date': '2026-01-10T00:09:06.000Z', 'text': 'Que rico con un pedazo de queso como lo vendían antes 🤤', 'profileUrl': 'https://www</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=870522879032047', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3Xzg3MDUyMjg3OTAzMjA0Nw==', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN184NzA1MjI4NzkwMzIwNDc=', 'date': '2026-01-10T06:18:16.000Z', 'text': 'Una loca una vez me dijo q se los comia con doritos', 'profileUrl': 'https://www.face</t>
         </is>
       </c>
     </row>
@@ -1052,29 +1050,27 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Con papitas de limón una delicia 😋</t>
+          <t>Que rico con un pedazo de queso como lo vendían antes 🤤</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2026-01-09T23:02:03.000Z</t>
+          <t>2026-01-10T00:09:06.000Z</t>
         </is>
       </c>
       <c r="H12" s="2" t="n">
-        <v>46031.95975694444</v>
-      </c>
-      <c r="I12" s="3" t="n">
-        <v>46031</v>
+        <v>46032.00631944444</v>
+      </c>
+      <c r="I12" s="2" t="n">
+        <v>46032</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>23:02:03</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>00:09:06</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1086,7 +1082,7 @@
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=2128202687922696', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzIxMjgyMDI2ODc5MjI2OTY=', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18yMTI4MjAyNjg3OTIyNjk2', 'date': '2026-01-09T23:02:03.000Z', 'text': 'Con papitas de limón una delicia 😋', 'profileUrl': 'https://www.facebook.com/yesenia</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=1886660978614343', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzE4ODY2NjA5Nzg2MTQzNDM=', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18xODg2NjYwOTc4NjE0MzQz', 'date': '2026-01-10T00:09:06.000Z', 'text': 'Que rico con un pedazo de queso como lo vendían antes 🤤', 'profileUrl': 'https://www</t>
         </is>
       </c>
     </row>
@@ -1112,29 +1108,27 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Saludos</t>
+          <t>Con papitas de limón una delicia 😋</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2026-01-09T21:29:33.000Z</t>
+          <t>2026-01-09T23:02:03.000Z</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
-        <v>46031.89552083334</v>
-      </c>
-      <c r="I13" s="3" t="n">
+        <v>46031.95975694444</v>
+      </c>
+      <c r="I13" s="2" t="n">
         <v>46031</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>21:29:33</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>23:02:03</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1146,7 +1140,7 @@
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=1367249577972718', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzEzNjcyNDk1Nzc5NzI3MTg=', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18xMzY3MjQ5NTc3OTcyNzE4', 'date': '2026-01-09T21:29:33.000Z', 'text': 'Saludos', 'profileUrl': 'https://www.facebook.com/people/El-moreno-del-humor/6155417</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=2128202687922696', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzIxMjgyMDI2ODc5MjI2OTY=', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18yMTI4MjAyNjg3OTIyNjk2', 'date': '2026-01-09T23:02:03.000Z', 'text': 'Con papitas de limón una delicia 😋', 'profileUrl': 'https://www.facebook.com/yesenia</t>
         </is>
       </c>
     </row>
@@ -1172,29 +1166,27 @@
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Pa un cancer</t>
+          <t>Saludos</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2026-01-09T20:23:22.000Z</t>
+          <t>2026-01-09T21:29:33.000Z</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
-        <v>46031.84956018518</v>
-      </c>
-      <c r="I14" s="3" t="n">
+        <v>46031.89552083334</v>
+      </c>
+      <c r="I14" s="2" t="n">
         <v>46031</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>20:23:22</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>21:29:33</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1206,7 +1198,7 @@
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=1282392983923173', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzEyODIzOTI5ODM5MjMxNzM=', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18xMjgyMzkyOTgzOTIzMTcz', 'date': '2026-01-09T20:23:22.000Z', 'text': 'Pa un cancer', 'profileUrl': 'https://www.facebook.com/mauricio.ariasgarzon.9', 'pro</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=1367249577972718', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzEzNjcyNDk1Nzc5NzI3MTg=', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18xMzY3MjQ5NTc3OTcyNzE4', 'date': '2026-01-09T21:29:33.000Z', 'text': 'Saludos', 'profileUrl': 'https://www.facebook.com/people/El-moreno-del-humor/6155417</t>
         </is>
       </c>
     </row>
@@ -1232,29 +1224,27 @@
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Con cuca eso es un pan</t>
+          <t>Pa un cancer</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2026-01-09T19:18:22.000Z</t>
+          <t>2026-01-09T20:23:22.000Z</t>
         </is>
       </c>
       <c r="H15" s="2" t="n">
-        <v>46031.8044212963</v>
-      </c>
-      <c r="I15" s="3" t="n">
+        <v>46031.84956018518</v>
+      </c>
+      <c r="I15" s="2" t="n">
         <v>46031</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>19:18:22</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>20:23:22</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -1266,7 +1256,7 @@
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=1668322601218526', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzE2NjgzMjI2MDEyMTg1MjY=', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18xNjY4MzIyNjAxMjE4NTI2', 'date': '2026-01-09T19:18:22.000Z', 'text': 'Con cuca eso es un pan', 'profileUrl': 'https://www.facebook.com/people/Jonathan-Per</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=1282392983923173', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzEyODIzOTI5ODM5MjMxNzM=', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18xMjgyMzkyOTgzOTIzMTcz', 'date': '2026-01-09T20:23:22.000Z', 'text': 'Pa un cancer', 'profileUrl': 'https://www.facebook.com/mauricio.ariasgarzon.9', 'pro</t>
         </is>
       </c>
     </row>
@@ -1292,29 +1282,27 @@
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Solo !!!</t>
+          <t>Con cuca eso es un pan</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2026-01-09T19:12:23.000Z</t>
+          <t>2026-01-09T19:18:22.000Z</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
-        <v>46031.8002662037</v>
-      </c>
-      <c r="I16" s="3" t="n">
+        <v>46031.8044212963</v>
+      </c>
+      <c r="I16" s="2" t="n">
         <v>46031</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>19:12:23</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>19:18:22</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1326,7 +1314,7 @@
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=1944940596458498', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzE5NDQ5NDA1OTY0NTg0OTg=', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18xOTQ0OTQwNTk2NDU4NDk4', 'date': '2026-01-09T19:12:23.000Z', 'text': 'Solo !!!', 'profileUrl': 'https://www.facebook.com/francisco.salazar.3538', 'profile</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=1668322601218526', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzE2NjgzMjI2MDEyMTg1MjY=', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18xNjY4MzIyNjAxMjE4NTI2', 'date': '2026-01-09T19:18:22.000Z', 'text': 'Con cuca eso es un pan', 'profileUrl': 'https://www.facebook.com/people/Jonathan-Per</t>
         </is>
       </c>
     </row>
@@ -1352,29 +1340,27 @@
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Dios cristojesu Espiritusanto</t>
+          <t>Solo !!!</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2026-01-09T15:57:57.000Z</t>
+          <t>2026-01-09T19:12:23.000Z</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
-        <v>46031.66524305556</v>
-      </c>
-      <c r="I17" s="3" t="n">
+        <v>46031.8002662037</v>
+      </c>
+      <c r="I17" s="2" t="n">
         <v>46031</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>15:57:57</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>19:12:23</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -1386,7 +1372,7 @@
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=2171705350315851', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzIxNzE3MDUzNTAzMTU4NTE=', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18yMTcxNzA1MzUwMzE1ODUx', 'date': '2026-01-09T15:57:57.000Z', 'text': 'Dios cristojesu Espiritusanto', 'profileUrl': 'https://www.facebook.com/james.perezc</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=1944940596458498', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzE5NDQ5NDA1OTY0NTg0OTg=', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18xOTQ0OTQwNTk2NDU4NDk4', 'date': '2026-01-09T19:12:23.000Z', 'text': 'Solo !!!', 'profileUrl': 'https://www.facebook.com/francisco.salazar.3538', 'profile</t>
         </is>
       </c>
     </row>
@@ -1412,23 +1398,23 @@
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Yo.  Solo  lo. Saco. Con mi. Dedo. Y pa. Dentro.</t>
+          <t>Dios cristojesu Espiritusanto</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2026-01-09T04:56:43.000Z</t>
+          <t>2026-01-09T15:57:57.000Z</t>
         </is>
       </c>
       <c r="H18" s="2" t="n">
-        <v>46031.20605324074</v>
+        <v>46031.66524305556</v>
       </c>
       <c r="I18" s="2" t="n">
         <v>46031</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>04:56:43</t>
+          <t>15:57:57</t>
         </is>
       </c>
       <c r="K18" t="n">
@@ -1444,7 +1430,7 @@
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=1612191580222869', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzE2MTIxOTE1ODAyMjI4Njk=', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18xNjEyMTkxNTgwMjIyODY5', 'date': '2026-01-09T04:56:43.000Z', 'text': 'Yo.  Solo  lo. Saco. Con mi. Dedo. Y pa. Dentro.', 'profileUrl': 'https://www.facebo</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=2171705350315851', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzIxNzE3MDUzNTAzMTU4NTE=', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18yMTcxNzA1MzUwMzE1ODUx', 'date': '2026-01-09T15:57:57.000Z', 'text': 'Dios cristojesu Espiritusanto', 'profileUrl': 'https://www.facebook.com/james.perezc</t>
         </is>
       </c>
     </row>
@@ -1470,23 +1456,23 @@
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>No pero $4.500 pa ensuciarse la muela. No mano. Eso no vale la pena. Mejor pago los $1.500 del taco saltin y como más rico y la opción de comprar así sean 3 mil de queso costeño. Pa hacer un sándwich de galleta con queso y arequipe jeje</t>
+          <t>Yo.  Solo  lo. Saco. Con mi. Dedo. Y pa. Dentro.</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2026-01-09T04:16:34.000Z</t>
+          <t>2026-01-09T04:56:43.000Z</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
-        <v>46031.1781712963</v>
+        <v>46031.20605324074</v>
       </c>
       <c r="I19" s="2" t="n">
         <v>46031</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>04:16:34</t>
+          <t>04:56:43</t>
         </is>
       </c>
       <c r="K19" t="n">
@@ -1502,7 +1488,7 @@
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t xml:space="preserve">{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=2721673288178668', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzI3MjE2NzMyODgxNzg2Njg=', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18yNzIxNjczMjg4MTc4NjY4', 'date': '2026-01-09T04:16:34.000Z', 'text': 'No pero $4.500 pa ensuciarse la muela. No mano. Eso no vale la pena. Mejor pago los </t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=1612191580222869', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzE2MTIxOTE1ODAyMjI4Njk=', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18xNjEyMTkxNTgwMjIyODY5', 'date': '2026-01-09T04:56:43.000Z', 'text': 'Yo.  Solo  lo. Saco. Con mi. Dedo. Y pa. Dentro.', 'profileUrl': 'https://www.facebo</t>
         </is>
       </c>
     </row>
@@ -1528,23 +1514,23 @@
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Con galletas de soda....</t>
+          <t>No pero $4.500 pa ensuciarse la muela. No mano. Eso no vale la pena. Mejor pago los $1.500 del taco saltin y como más rico y la opción de comprar así sean 3 mil de queso costeño. Pa hacer un sándwich de galleta con queso y arequipe jeje</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2026-01-09T01:05:37.000Z</t>
+          <t>2026-01-09T04:16:34.000Z</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
-        <v>46031.04556712963</v>
+        <v>46031.1781712963</v>
       </c>
       <c r="I20" s="2" t="n">
         <v>46031</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>01:05:37</t>
+          <t>04:16:34</t>
         </is>
       </c>
       <c r="K20" t="n">
@@ -1560,7 +1546,7 @@
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=1409373564159730', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzE0MDkzNzM1NjQxNTk3MzA=', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18xNDA5MzczNTY0MTU5NzMw', 'date': '2026-01-09T01:05:37.000Z', 'text': 'Con galletas de soda....', 'profileUrl': 'https://www.facebook.com/deisyandrea.marin</t>
+          <t xml:space="preserve">{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=2721673288178668', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzI3MjE2NzMyODgxNzg2Njg=', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18yNzIxNjczMjg4MTc4NjY4', 'date': '2026-01-09T04:16:34.000Z', 'text': 'No pero $4.500 pa ensuciarse la muela. No mano. Eso no vale la pena. Mejor pago los </t>
         </is>
       </c>
     </row>
@@ -1586,23 +1572,23 @@
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Con galletas de soda....</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2026-01-08T22:07:31.000Z</t>
+          <t>2026-01-09T01:05:37.000Z</t>
         </is>
       </c>
       <c r="H21" s="2" t="n">
-        <v>46030.92188657408</v>
+        <v>46031.04556712963</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>46030</v>
+        <v>46031</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>22:07:31</t>
+          <t>01:05:37</t>
         </is>
       </c>
       <c r="K21" t="n">
@@ -1618,7 +1604,7 @@
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=870650915711997', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3Xzg3MDY1MDkxNTcxMTk5Nw==', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN184NzA2NTA5MTU3MTE5OTc=', 'date': '2026-01-08T22:07:31.000Z', 'text': '1', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/472669620_1</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=1409373564159730', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzE0MDkzNzM1NjQxNTk3MzA=', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18xNDA5MzczNTY0MTU5NzMw', 'date': '2026-01-09T01:05:37.000Z', 'text': 'Con galletas de soda....', 'profileUrl': 'https://www.facebook.com/deisyandrea.marin</t>
         </is>
       </c>
     </row>
@@ -1644,23 +1630,23 @@
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Eso es lo q vale 15lukas en sandwich qbano eso es mero robo</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2026-01-08T20:08:02.000Z</t>
+          <t>2026-01-08T22:07:31.000Z</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
-        <v>46030.83891203703</v>
+        <v>46030.92188657408</v>
       </c>
       <c r="I22" s="2" t="n">
         <v>46030</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>20:08:02</t>
+          <t>22:07:31</t>
         </is>
       </c>
       <c r="K22" t="n">
@@ -1676,7 +1662,7 @@
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=3042158472650995', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzMwNDIxNTg0NzI2NTA5OTU=', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18zMDQyMTU4NDcyNjUwOTk1', 'date': '2026-01-08T20:08:02.000Z', 'text': 'Eso es lo q vale 15lukas en sandwich qbano eso es mero robo', 'profileUrl': 'https:/</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=870650915711997', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3Xzg3MDY1MDkxNTcxMTk5Nw==', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN184NzA2NTA5MTU3MTE5OTc=', 'date': '2026-01-08T22:07:31.000Z', 'text': '1', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/472669620_1</t>
         </is>
       </c>
     </row>
@@ -1702,23 +1688,23 @@
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>😍😍😍😋</t>
+          <t>Eso es lo q vale 15lukas en sandwich qbano eso es mero robo</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2026-01-08T03:17:28.000Z</t>
+          <t>2026-01-08T20:08:02.000Z</t>
         </is>
       </c>
       <c r="H23" s="2" t="n">
-        <v>46030.13712962963</v>
+        <v>46030.83891203703</v>
       </c>
       <c r="I23" s="2" t="n">
         <v>46030</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>03:17:28</t>
+          <t>20:08:02</t>
         </is>
       </c>
       <c r="K23" t="n">
@@ -1734,7 +1720,7 @@
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=25509492045398285', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzI1NTA5NDkyMDQ1Mzk4Mjg1', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18yNTUwOTQ5MjA0NTM5ODI4NQ==', 'date': '2026-01-08T03:17:28.000Z', 'text': '😍😍😍😋', 'profileUrl': 'https://www.facebook.com/paulitha.montalvo.9', 'profilePi</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=3042158472650995', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzMwNDIxNTg0NzI2NTA5OTU=', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18zMDQyMTU4NDcyNjUwOTk1', 'date': '2026-01-08T20:08:02.000Z', 'text': 'Eso es lo q vale 15lukas en sandwich qbano eso es mero robo', 'profileUrl': 'https:/</t>
         </is>
       </c>
     </row>
@@ -1760,23 +1746,23 @@
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Muy dulce</t>
+          <t>😍😍😍😋</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2026-01-07T20:37:57.000Z</t>
+          <t>2026-01-08T03:17:28.000Z</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
-        <v>46029.8596875</v>
+        <v>46030.13712962963</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>46029</v>
+        <v>46030</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>20:37:57</t>
+          <t>03:17:28</t>
         </is>
       </c>
       <c r="K24" t="n">
@@ -1791,6 +1777,64 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=25509492045398285', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzI1NTA5NDkyMDQ1Mzk4Mjg1', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18yNTUwOTQ5MjA0NTM5ODI4NQ==', 'date': '2026-01-08T03:17:28.000Z', 'text': '😍😍😍😋', 'profileUrl': 'https://www.facebook.com/paulitha.montalvo.9', 'profilePi</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>8</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Muy dulce</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2026-01-07T20:37:57.000Z</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="n">
+        <v>46029.8596875</v>
+      </c>
+      <c r="I25" s="2" t="n">
+        <v>46029</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>20:37:57</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="b">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
         <is>
           <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=1366545264600266', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzEzNjY1NDUyNjQ2MDAyNjY=', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18xMzY2NTQ1MjY0NjAwMjY2', 'date': '2026-01-07T20:37:57.000Z', 'text': 'Muy dulce', 'profileUrl': 'https://www.facebook.com/esperanza.roalarrotta', 'profile</t>
         </is>
@@ -2036,7 +2080,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E9" t="n">
         <v>2</v>
@@ -2045,7 +2089,7 @@
         <v>46029.8596875</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>46032.26268518518</v>
+        <v>46032.96554398148</v>
       </c>
     </row>
   </sheetData>
@@ -2104,10 +2148,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="E2" t="n">
         <v>2</v>
